--- a/ProjectDR.xlsx
+++ b/ProjectDR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="93">
   <si>
     <t>Defect ID</t>
   </si>
@@ -91,13 +91,1081 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>DF_001</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>After entering valid userID and password User is unable to login.</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
+  </si>
+  <si>
+    <t>Internal Dev</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>29/11/2018</t>
+  </si>
+  <si>
+    <t>Naman Awasthi</t>
+  </si>
+  <si>
+    <t>Rutuja</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>TC_SIGNIN_002</t>
+  </si>
+  <si>
+    <t>DF_002</t>
+  </si>
+  <si>
+    <t>Book Flight</t>
+  </si>
+  <si>
+    <t>Due to unsuccessfull Payment user is unable is Book Flight .</t>
+  </si>
+  <si>
+    <t>External Dev</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>REOPENED</t>
+  </si>
+  <si>
+    <t>TC_BOOK_FLIGHT_004</t>
+  </si>
+  <si>
+    <t>DF_003</t>
+  </si>
+  <si>
+    <t>Itinerary</t>
+  </si>
+  <si>
+    <t>The user is unable to cancil flight once it is booked</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>TC_ITINERARY_006</t>
+  </si>
+  <si>
+    <t>Tour_page_secure</t>
+  </si>
+  <si>
+    <t>The webpage is found unable to display error message(Please enter a 10 digit mobile number) by accepting invalid password</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Mayur more</t>
+  </si>
+  <si>
+    <t>Naman Avasthi</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>The website is found unable to send otp even after entering valid mobile number</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>The webpage is found unable to display error message(Please enter a 6 digit OTP) by accepting invalid OTP which is greater than 6</t>
+  </si>
+  <si>
+    <t>DF_004</t>
+  </si>
+  <si>
+    <t>The webpage is found unable to display error message(Please enter a 6 digit OTP) by accepting invalid OTP which is less than 6</t>
+  </si>
+  <si>
+    <t>DF_005</t>
+  </si>
+  <si>
+    <t>After clicking '"Verify' button it is found unable to navigate to Flight Confirmation page.</t>
+  </si>
+  <si>
+    <t>Tc_002</t>
+  </si>
+  <si>
+    <t>FlighT</t>
+  </si>
+  <si>
+    <t>The Flight  tab is found to be unable to navigate user to Flight page.</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>27/11/2018</t>
+  </si>
+  <si>
+    <t>Nilesh Kalwar</t>
+  </si>
+  <si>
+    <t>Rutuja Kulkarni</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>The "Register " tab is found to be unable to navigate user to Register page.</t>
+  </si>
+  <si>
+    <t>SignOn</t>
+  </si>
+  <si>
+    <t>The "Sign On"  tab is found to be unable to navigate user to Register page.</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Cruise_Special</t>
+  </si>
+  <si>
+    <t>The "Cruise Special" tab is found to be unable to navigate user to "Cruise Special" page.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In Home page it is found that the user is unable to navigate to "Flight" page by clicking on "Flight" tab.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps To reproduce the bug:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Open Browser .
+2. Enter URL for the website. 
+3. Click on "Flight" tab.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Actual result observed on running above steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>executing the above mentioned steps it is observed that the user is unable to navigate to Flight page as expected.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In Home page it is found that the user is unable to navigate to "Register" page by clicking on "Register" tab.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps To reproduce the bug:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Open Browser .
+2. Enter URL for the website. 
+3. Click on "Register" tab.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result observed on running above steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+On executing the above mentioned steps it is observed that the user is unable to navigate to Register page as expected.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In Home page it is found that the user is unable to navigate to "Register" page by clicking on "Register" tab.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps To reproduce the bug:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Open Browser .
+2. Enter URL for the website. 
+3. Click on "Register" tab.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Actual result observed on running above steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+On executing the above mentioned steps it is observed that the user is unable to navigate to Register page as expected.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+On clicking login button and entering Valid userID and Password user is unable to navigate to next prespective page of the application and hence login fails.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps  To reproduce the bug:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Open Browser
+2. Enter URL for the website
+3. Click on login' text link
+4.Enter valid userID and password
+5.Click on login Button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Actual result observed on running above steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On executing the above mentioned steps it is observed that the application unable to login the user on next web page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as expected. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The application stays on the same page and user is not logged in.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The user is unable to Book Flight as he/she is unable to make successfull payment even after emtering correct credentails
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps  To reproduce the bug:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Open Browser
+2. Enter URL for the website
+3. Click on login' text link
+4.Enter valid userID and password
+5.Click on login Button
+6.click on find flight
+7.select flight and click on book flight to make payment.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result observed on running above steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">On executing the above mentioned steps it is observed that the application unable to book flight for user even after entering valid credentials not working </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as expected. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The application displays error message.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The user clicks on itinerary . The cancil flight option </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is  found but unable to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cancil user flight
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps  To reproduce the bug:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Open Browser
+2. Enter URL for the website
+3. Click on login' text link
+4.Enter valid userID and password
+5.Click on login Button
+6.Click on itinerary text link
+7.Click on cancil flight button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Actual result observed on running above steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On executing the above mentioned steps it is observed that the cancil flight feild of an application is unable to cancil user flight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as expected by tester.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The webpage is found unable to display error message("Please Enter 10 digit mobile number") by accepting invalid mobile No
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps  To reproduce the bug:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Enter URL https://newtours.demorout.com                    2.after entering credential Click on registration button                                           3.after entering flights details click on secure purchase button.                                  4.Enter the data in mobile no field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result observed on running above steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+On executing the above mentioned steps it is observed that the The Mobile No Field is  Accepting the invalid data as expected. Error message is not displaying</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The website is found unable to send otp even after entering valid mobile number
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps  To reproduce the bug:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Enter URL https://newtours.demorout.com                    2.after entering credential Click on registration button                                           3.after entering flights details click on secure purchase button.                                  4.Enter the valid data in mobile no field.       5.Click on "Send OTP" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result observed on running above steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+On executing the above mentioned steps it is observed that the Webpage is not  sending an OTP even after entering the valid mobile no.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The webpage is found unable to display error message(Please enter a 6 digit OTP) by accepting invalid OTP which is greater than 6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps  To reproduce the bug:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Enter URL https://newtours.demorout.com                    2.after entering credential Click on registration button                                           3.after entering flights details click on secure purchase button.                                  4.Enter the valid data in mobile no field.      5.Click on "Send OTP" button                         6.Enter an invalid data in OTP No field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result observed on running above steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+On executing the above mentioned steps it is observed that the The OTP Field is  Accepting the invalid data as expected. Error message is not displaying</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The webpage is found unable to display error message(Please enter a 6 digit OTP) by accepting invalid OTP which is less than 6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Steps  To reproduce the bug:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1.Enter URL https://newtours.demorout.com                    2.after entering credential Click on registration button                                           3.after entering flights details click on secure purchase button.                                  4.Enter the valid data in mobile no field.      5.Click on "Send OTP" button                         6.Enter an invalid data in OTP No field
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual result observed on running above steps:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+On executing the above mentioned steps it is observed that the The OTP Field is  Accepting the invalid data as expected. Error message is not displaying</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detailed Description:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+After clicking '"Verify' button it is found unable to navigate to Flight Confirmation page.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Steps  To reproduce the bug:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1.Enter URL https://newtours.demorout.com                    2.after entering credential Click on registration button                                           3.after entering flights details click on secure purchase button.                                  4.Enter the valid data in mobile no field.      5.Click on "Send OTP" button                         6.Enter an valid data in OTP No field             7.Click on "Verify" button
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Actual result observed on running above steps:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On executing the above mentioned steps it is observed that the application is not redirecting to the Flight Confirmation Page,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">as expected. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The application stays on the same page.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,16 +1179,85 @@
       <name val="Bell MT"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,11 +1265,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -143,9 +1333,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Norm??" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,23 +1718,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="Y15" sqref="Y15"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="25.7109375" customWidth="1"/>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="30" customWidth="1"/>
+    <col min="5" max="15" width="25.7109375" customWidth="1"/>
     <col min="16" max="16" width="35.7109375" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" customWidth="1"/>
     <col min="18" max="25" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +1746,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -537,37 +1813,720 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:32" s="22" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+    </row>
+    <row r="4" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:32" s="22" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="9">
+        <v>4</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+    </row>
+    <row r="6" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" s="22" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+    </row>
+    <row r="8" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:32" s="22" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>43406</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:32" s="22" customFormat="1" ht="390" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2</v>
+      </c>
+      <c r="L11" s="12">
+        <v>43406</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:32" s="22" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>43406</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:32" s="22" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12">
+        <v>43406</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:25" s="22" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="13">
+        <v>3</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+    </row>
+    <row r="18" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:25" s="22" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+    </row>
+    <row r="20" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:25" s="22" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:25" s="22" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:25" s="22" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+    </row>
+    <row r="26" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -636,7 +2595,23 @@
     <row r="98" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="99" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="100" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A6:XFD6"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A10:XFD10"/>
+    <mergeCell ref="A12:XFD12"/>
+    <mergeCell ref="A14:XFD14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
